--- a/excel/供应链汇总2024-02-03.xlsx
+++ b/excel/供应链汇总2024-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,11 +798,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>瑞商贷</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>146942600</v>
+        <v>958823044.6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -816,23 +816,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>瑞商贷</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>瑞商贷</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>联创光电</t>
+          <t>瑞商贷-怡亚通</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199598785.73</v>
+        <v>101272333.45</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -841,28 +841,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>瑞e保</t>
+          <t>瑞e惠</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>江西联创光电科技股份有限公司</t>
+          <t>深圳市怡亚通信息技术有限公司</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>联创光电</t>
+          <t>瑞商贷-怡亚通</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>远东</t>
+          <t>瑞商贷-重庆金微</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>249871345.69</v>
+        <v>9378131.359999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -871,28 +871,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>瑞e保</t>
+          <t>瑞e惠</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>远东智慧能源股份有限公司</t>
+          <t>重庆金微科技有限公司</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>远东</t>
+          <t>瑞商贷-重庆金微</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>钰翔</t>
+          <t>磁金融</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1467660500.94</v>
+        <v>146942600</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -901,28 +901,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>瑞e订</t>
+          <t>瑞e惠</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>钰翔环保供应链管理（上海）有限公司</t>
+          <t>磁金融</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>钰翔</t>
+          <t>磁金融</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>银江</t>
+          <t>联创光电</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29999999.64</v>
+        <v>199598785.73</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -936,40 +936,130 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>银江技术股份有限公司</t>
+          <t>江西联创光电科技股份有限公司</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>银江</t>
+          <t>联创光电</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>远东</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>249871345.69</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>远东智慧能源股份有限公司</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>远东</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>钰翔</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1467660500.94</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>瑞e订</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>钰翔环保供应链管理（上海）有限公司</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>钰翔</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>银江</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29999999.64</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>瑞e保</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>银江技术股份有限公司</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>银江</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>锱云</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>24635000</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2024-02-03</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>瑞e惠</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>锱云（上海）物联网科技有限公司</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>锱云</t>
         </is>
